--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -455,13 +455,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Front End UI Developer</v>
+        <v>Front End Developer</v>
       </c>
       <c r="B4" t="str">
-        <v>Marval Software Ltd</v>
+        <v>Woolworths Group</v>
       </c>
       <c r="C4" t="str">
-        <v>$95,000 – $100,000 per year</v>
+        <v>Salary + Bonus</v>
       </c>
       <c r="D4" t="str">
         <v>(Information &amp; Communication Technology)</v>
@@ -472,13 +472,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Front End Developer</v>
+        <v>Front End UI Developer</v>
       </c>
       <c r="B5" t="str">
-        <v>Woolworths Group</v>
+        <v>Marval Software Ltd</v>
       </c>
       <c r="C5" t="str">
-        <v>Salary + Bonus</v>
+        <v>$95,000 – $100,000 per year</v>
       </c>
       <c r="D5" t="str">
         <v>(Information &amp; Communication Technology)</v>
@@ -529,7 +529,7 @@
         <v>Swordfish Search Pty Ltd</v>
       </c>
       <c r="C8" t="str">
-        <v>$80,000 – $90,000 per year</v>
+        <v>$80,000 – $112,999 per year</v>
       </c>
       <c r="D8" t="str">
         <v>(Information &amp; Communication Technology)</v>
@@ -546,7 +546,7 @@
         <v>Paxus</v>
       </c>
       <c r="C9" t="str">
-        <v>$80,000 – $112,999 per year</v>
+        <v>$85,000 – $105,000 per year</v>
       </c>
       <c r="D9" t="str">
         <v>(Information &amp; Communication Technology)</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Software Developer</v>
+        <v>In-house Junior Web Developer</v>
       </c>
       <c r="B10" t="str">
-        <v>Unifacta Pty Ltd</v>
+        <v>Jade Finance Australia</v>
       </c>
       <c r="C10" t="str">
         <v>Career growth with great company benefits</v>
@@ -569,15 +569,15 @@
         <v>(Information &amp; Communication Technology)</v>
       </c>
       <c r="E10" t="str">
-        <v>Engineering - Software</v>
+        <v>Web Development &amp; Production</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>React Developer</v>
+        <v>Front End (React) Engineer</v>
       </c>
       <c r="B11" t="str">
-        <v>Akkodis</v>
+        <v>Assembl Talent Pty Ltd</v>
       </c>
       <c r="C11" t="str">
         <v>$100,000 – $120,000 per year</v>
@@ -586,18 +586,15 @@
         <v>(Information &amp; Communication Technology)</v>
       </c>
       <c r="E11" t="str">
-        <v>Developers/Programmers</v>
+        <v>Engineering - Software</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>In-house Junior Web Developer</v>
+        <v>Web Developer</v>
       </c>
       <c r="B12" t="str">
-        <v>Jade Finance Australia</v>
-      </c>
-      <c r="C12" t="str">
-        <v>$120,000 – $150,000 per year</v>
+        <v>Optimise Online</v>
       </c>
       <c r="D12" t="str">
         <v>(Information &amp; Communication Technology)</v>
@@ -608,41 +605,38 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Front End (React) Engineer</v>
+        <v>Front End Developer (TypeScript)</v>
       </c>
       <c r="B13" t="str">
-        <v>Assembl Talent Pty Ltd</v>
-      </c>
-      <c r="C13" t="str">
-        <v>$85,000 – $105,000 per year</v>
+        <v>Capgemini Australia Pty Ltd</v>
       </c>
       <c r="D13" t="str">
         <v>(Information &amp; Communication Technology)</v>
       </c>
       <c r="E13" t="str">
-        <v>Engineering - Software</v>
+        <v>Developers/Programmers</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Web Developer</v>
+        <v>Mid-Level+ Front-end Developer</v>
       </c>
       <c r="B14" t="str">
-        <v>Optimise Online</v>
+        <v>Global Technology Group Pty Ltd</v>
       </c>
       <c r="D14" t="str">
         <v>(Information &amp; Communication Technology)</v>
       </c>
       <c r="E14" t="str">
-        <v>Web Development &amp; Production</v>
+        <v>Developers/Programmers</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Front End Developer (TypeScript)</v>
+        <v>Senior Front End Developer</v>
       </c>
       <c r="B15" t="str">
-        <v>Capgemini Australia Pty Ltd</v>
+        <v>Alphalitica Pty Ltd</v>
       </c>
       <c r="D15" t="str">
         <v>(Information &amp; Communication Technology)</v>
@@ -653,10 +647,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Senior Front End Developer</v>
+        <v>React Developer</v>
       </c>
       <c r="B16" t="str">
-        <v>Alphalitica Pty Ltd</v>
+        <v>Akkodis</v>
       </c>
       <c r="D16" t="str">
         <v>(Information &amp; Communication Technology)</v>
@@ -667,10 +661,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Mid-Level+ Front-end Developer</v>
+        <v>Front End Developer</v>
       </c>
       <c r="B17" t="str">
-        <v>Global Technology Group Pty Ltd</v>
+        <v>FTP Solutions</v>
       </c>
       <c r="D17" t="str">
         <v>(Information &amp; Communication Technology)</v>
@@ -681,38 +675,38 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Software Developer/Front-End Designer/Support Engineer</v>
+        <v>Full Stack Web Developer UI / UX</v>
       </c>
       <c r="B18" t="str">
-        <v>Dematic Pty Ltd</v>
+        <v>Web Oracle</v>
       </c>
       <c r="D18" t="str">
         <v>(Information &amp; Communication Technology)</v>
       </c>
       <c r="E18" t="str">
-        <v>Engineering - Software</v>
+        <v>Web Development &amp; Production</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Web Developer/Programmer</v>
+        <v>Software Developer/Front-End Designer/Support Engineer</v>
       </c>
       <c r="B19" t="str">
-        <v>Tomax Logistics</v>
+        <v>Dematic Pty Ltd</v>
       </c>
       <c r="D19" t="str">
         <v>(Information &amp; Communication Technology)</v>
       </c>
       <c r="E19" t="str">
-        <v>Developers/Programmers</v>
+        <v>Engineering - Software</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Full Stack Developer</v>
+        <v>Web Developer/Programmer</v>
       </c>
       <c r="B20" t="str">
-        <v>Longtek</v>
+        <v>Tomax Logistics</v>
       </c>
       <c r="D20" t="str">
         <v>(Information &amp; Communication Technology)</v>
@@ -726,7 +720,7 @@
         <v>Front End Developer</v>
       </c>
       <c r="B21" t="str">
-        <v>BLACKROC</v>
+        <v>Village Roadshow Theme Parks Pty Ltd</v>
       </c>
       <c r="D21" t="str">
         <v>(Information &amp; Communication Technology)</v>
@@ -737,35 +731,705 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Full Stack Web Developer UI / UX</v>
+        <v>Front End Engineer</v>
       </c>
       <c r="B22" t="str">
-        <v>Web Oracle</v>
+        <v>Local Agent Finder</v>
       </c>
       <c r="D22" t="str">
         <v>(Information &amp; Communication Technology)</v>
       </c>
       <c r="E22" t="str">
-        <v>Web Development &amp; Production</v>
+        <v>Engineering - Software</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
+        <v>Full Stack Software Developer</v>
+      </c>
+      <c r="B23" t="str">
+        <v>MoTeC</v>
+      </c>
+      <c r="D23" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Front End UI Developer</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Marval Software Ltd</v>
+      </c>
+      <c r="C24" t="str">
+        <v>$95,000 – $100,000 per year</v>
+      </c>
+      <c r="D24" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Front End Developer</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Woolworths Group</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Salary + Bonus</v>
+      </c>
+      <c r="D25" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Front End Developer</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Woolworths Group</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Salary + Bonus</v>
+      </c>
+      <c r="D26" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Front End UI Developer</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Marval Software Ltd</v>
+      </c>
+      <c r="C27" t="str">
+        <v>$95,000 – $100,000 per year</v>
+      </c>
+      <c r="D27" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Graduate / Junior Front-End Software Engineer</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Element Engineering Australia</v>
+      </c>
+      <c r="C28" t="str">
+        <v>$135k base plus super</v>
+      </c>
+      <c r="D28" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Web Developer (Front End Developer)</v>
+      </c>
+      <c r="B29" t="str">
+        <v>The University Of Notre Dame</v>
+      </c>
+      <c r="C29" t="str">
+        <v>$100 - $150 p.h.</v>
+      </c>
+      <c r="D29" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Web Development &amp; Production</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Front End Developer</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Swordfish Search Pty Ltd</v>
+      </c>
+      <c r="C30" t="str">
+        <v>$80,000 – $112,999 per year</v>
+      </c>
+      <c r="D30" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Software Front End Developer</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Paxus</v>
+      </c>
+      <c r="C31" t="str">
+        <v>$85,000 – $105,000 per year</v>
+      </c>
+      <c r="D31" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Web Development &amp; Production</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>In-house Junior Web Developer</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Jade Finance Australia</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Career growth with great company benefits</v>
+      </c>
+      <c r="D32" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Web Development &amp; Production</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Front End (React) Engineer</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Assembl Talent Pty Ltd</v>
+      </c>
+      <c r="C33" t="str">
+        <v>$100,000 – $120,000 per year</v>
+      </c>
+      <c r="D33" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Engineering - Software</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Web Developer</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Optimise Online</v>
+      </c>
+      <c r="D34" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Web Development &amp; Production</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Front End Developer (TypeScript)</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Capgemini Australia Pty Ltd</v>
+      </c>
+      <c r="D35" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Mid-Level+ Front-end Developer</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Global Technology Group Pty Ltd</v>
+      </c>
+      <c r="D36" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Senior Front End Developer</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Alphalitica Pty Ltd</v>
+      </c>
+      <c r="D37" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>React Developer</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Akkodis</v>
+      </c>
+      <c r="D38" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Front End Developer</v>
+      </c>
+      <c r="B39" t="str">
+        <v>FTP Solutions</v>
+      </c>
+      <c r="D39" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Full Stack Web Developer UI / UX</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Web Oracle</v>
+      </c>
+      <c r="D40" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Web Development &amp; Production</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Software Developer/Front-End Designer/Support Engineer</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Dematic Pty Ltd</v>
+      </c>
+      <c r="D41" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Engineering - Software</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Web Developer/Programmer</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Tomax Logistics</v>
+      </c>
+      <c r="D42" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Front End Developer</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Village Roadshow Theme Parks Pty Ltd</v>
+      </c>
+      <c r="D43" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
         <v>Front End Engineer</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B44" t="str">
         <v>Local Agent Finder</v>
       </c>
-      <c r="D23" t="str">
-        <v>(Information &amp; Communication Technology)</v>
-      </c>
-      <c r="E23" t="str">
+      <c r="D44" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E44" t="str">
         <v>Engineering - Software</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Full Stack Software Developer</v>
+      </c>
+      <c r="B45" t="str">
+        <v>MoTeC</v>
+      </c>
+      <c r="D45" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Graduate / Junior Front-End Software Engineer</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Element Engineering Australia</v>
+      </c>
+      <c r="C46" t="str">
+        <v>AUD 780 per day</v>
+      </c>
+      <c r="D46" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>In-house Junior Web Developer</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Jade Finance Australia</v>
+      </c>
+      <c r="C47" t="str">
+        <v>$1000 to $1300 per day - WFH Hybrid</v>
+      </c>
+      <c r="D47" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Web Development &amp; Production</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Front-End Software Engineer (Angular)</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Roller Software</v>
+      </c>
+      <c r="C48" t="str">
+        <v>$700 – $800 per day</v>
+      </c>
+      <c r="D48" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Engineering - Software</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Front End Developer</v>
+      </c>
+      <c r="B49" t="str">
+        <v>BLACKROC</v>
+      </c>
+      <c r="C49" t="str">
+        <v>$800 - $900 p.d. 1x Mid, 1x Snr Op. Available</v>
+      </c>
+      <c r="D49" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Senior Frontend Developer (React) – Full-Time | Brisbane/SEQ</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Private Advertiser</v>
+      </c>
+      <c r="C50" t="str">
+        <v>$50 – $70 per hour</v>
+      </c>
+      <c r="D50" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Front End Developer – Angular / React – AU Citizens Only</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Accenture</v>
+      </c>
+      <c r="C51" t="str">
+        <v>AUD 150000 - 180000 per annum</v>
+      </c>
+      <c r="D51" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Senior React Developer</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Opus Recruitment Solutions</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Salaried + Super</v>
+      </c>
+      <c r="D52" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Engineering - Software</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Junior React Engineer</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Attribute Group</v>
+      </c>
+      <c r="C53" t="str">
+        <v>AUD 100000 - 145000 per annum</v>
+      </c>
+      <c r="D53" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Front End Developer</v>
+      </c>
+      <c r="B54" t="str">
+        <v>BLACKROC</v>
+      </c>
+      <c r="D54" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Frontend Developer (Azure Web Apps - React / Flask) - JavaScript / TypeScript</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Infinity Pro</v>
+      </c>
+      <c r="D55" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Senior Wordpress Developer</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Online Education Services</v>
+      </c>
+      <c r="D56" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Angular Developer</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Method Recruitment Group</v>
+      </c>
+      <c r="D57" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Frontend Developer (React)</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Davidson</v>
+      </c>
+      <c r="D58" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Engineering - Software</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Junior-Mid React Engineer (daily-rate contract)</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Method Recruitment Group</v>
+      </c>
+      <c r="D59" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Engineering - Software</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Full-Stack Developer</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Tomorrow Homes Group</v>
+      </c>
+      <c r="D60" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Full Stack Engineer - Java / Vue / React</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Opus Recruitment Solutions</v>
+      </c>
+      <c r="D61" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Engineering - Software</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Web Developer (Back End Developer)</v>
+      </c>
+      <c r="B62" t="str">
+        <v>The University Of Notre Dame</v>
+      </c>
+      <c r="D62" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Web Development &amp; Production</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Full Stack Developer</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Brightgreen</v>
+      </c>
+      <c r="D63" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Senior Software Developer (Website)</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Newcastle Greater Mutual Group</v>
+      </c>
+      <c r="D64" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Website Developer</v>
+      </c>
+      <c r="B65" t="str">
+        <v>FindStaff Pty Ltd</v>
+      </c>
+      <c r="D65" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Web Development &amp; Production</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Senior Software Developer (Website)</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Newcastle Greater Mutual Group</v>
+      </c>
+      <c r="D66" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Developers/Programmers</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>React Developer</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Ignite</v>
+      </c>
+      <c r="D67" t="str">
+        <v>(Information &amp; Communication Technology)</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Developers/Programmers</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E67"/>
   </ignoredErrors>
 </worksheet>
 </file>